--- a/TTM/ttm_TRY2_U-Mo.xlsx
+++ b/TTM/ttm_TRY2_U-Mo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/TTM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/TTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF3DEA-7240-4347-BFF8-8EE8CDACCACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63FE51-A99D-E24A-B4DF-11A424626F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3980" yWindow="700" windowWidth="27640" windowHeight="16940" xr2:uid="{A7F8A34F-04BC-E04F-8319-EC50493C9996}"/>
+    <workbookView xWindow="3980" yWindow="700" windowWidth="27640" windowHeight="16940" xr2:uid="{A7F8A34F-04BC-E04F-8319-EC50493C9996}"/>
   </bookViews>
   <sheets>
     <sheet name="ke_U1" sheetId="2" r:id="rId1"/>
@@ -10559,320 +10559,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ke_U1!$A$589:$A$638</c:f>
+              <c:f>ke_U1!$A$620:$A$634</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.404800000000002</c:v>
+                  <c:v>652.95360000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.809600000000003</c:v>
+                  <c:v>673.35840000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.214399999999998</c:v>
+                  <c:v>693.7632000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.619200000000006</c:v>
+                  <c:v>714.16800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.024</c:v>
+                  <c:v>734.57280000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.4288</c:v>
+                  <c:v>754.97760000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.83360000000002</c:v>
+                  <c:v>775.38239999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163.23840000000001</c:v>
+                  <c:v>795.78719999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.64320000000001</c:v>
+                  <c:v>816.19200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>204.048</c:v>
+                  <c:v>836.59679999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.4528</c:v>
+                  <c:v>857.00159999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244.85759999999999</c:v>
+                  <c:v>877.40639999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.26240000000001</c:v>
+                  <c:v>897.81119999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285.66720000000004</c:v>
+                  <c:v>918.21600000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>306.072</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>326.47680000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>346.88160000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>367.28640000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>387.69119999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>408.096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>428.50079999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>448.90559999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>469.31040000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>489.71519999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>510.12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>530.52480000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>550.92960000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>571.33440000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>591.73919999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>612.14400000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>632.54880000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>652.95360000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>673.35840000000007</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>693.7632000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>714.16800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>734.57280000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>754.97760000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>775.38239999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>795.78719999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>816.19200000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>836.59679999999992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>857.00159999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>877.40639999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>897.81119999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>918.21600000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>938.62080000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>959.02559999999994</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>979.43039999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>999.83519999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1020.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ke_U1!$G$589:$G$638</c:f>
+              <c:f>ke_U1!$C$620:$C$634</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>329.25658905411098</c:v>
+                  <c:v>456.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>348.16321074673499</c:v>
+                  <c:v>452.601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>351.33977599502902</c:v>
+                  <c:v>447.54899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>358.32691399664299</c:v>
+                  <c:v>432.35399999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>363.278481341271</c:v>
+                  <c:v>430.69200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>365.42353437416602</c:v>
+                  <c:v>424.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>365.96593506930401</c:v>
+                  <c:v>422.92500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>365.92405421110601</c:v>
+                  <c:v>412.73099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365.78796722258198</c:v>
+                  <c:v>411.24099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>365.71159487786502</c:v>
+                  <c:v>403.81400000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>365.70593669920902</c:v>
+                  <c:v>396.93700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>365.74100863928601</c:v>
+                  <c:v>389.57600000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>365.78663772483202</c:v>
+                  <c:v>388.96199999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>365.82427436302299</c:v>
+                  <c:v>384.21199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>365.84694549230898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>365.85534904591799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>365.85373050100299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>365.846936605385</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>365.838848294321</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>365.83187075369898</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>365.827044590892</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>365.82442313513002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>365.82349351726498</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>365.82353307603199</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>365.82386716481301</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>365.82403297378403</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>365.82386716481301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>365.82353307603199</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>365.82349351726498</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>365.82442313513002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>365.827044590892</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>365.83187075369898</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>365.838848294321</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>365.846936605385</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>365.85373050100299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>365.85534904591799</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>365.84694549230898</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>365.82427436302299</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>365.78663772483202</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>365.74100863928601</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>365.70593669920902</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>365.71159487786502</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>365.78796722258198</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>365.92405421110601</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>365.96593506930401</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>365.42353437416602</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>363.278481341271</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>358.32691399664299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>351.33977599502902</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>348.16321074673499</c:v>
+                  <c:v>375.613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15090,154 +14924,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>337.96</c:v>
+                  <c:v>340.37715081282499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.17</c:v>
+                  <c:v>334.46276006808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.76</c:v>
+                  <c:v>330.272003419089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.45</c:v>
+                  <c:v>338.483249272818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.39</c:v>
+                  <c:v>342.359167249645</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347.72</c:v>
+                  <c:v>347.26893146331503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>354.33</c:v>
+                  <c:v>356.34805567444403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>361.34</c:v>
+                  <c:v>362.40381205450302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365.84</c:v>
+                  <c:v>365.39833209223201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>372.43</c:v>
+                  <c:v>375.08511509015102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>378.44</c:v>
+                  <c:v>377.78505737634799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>382.05</c:v>
+                  <c:v>377.602095593385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>388.23</c:v>
+                  <c:v>382.18184789804297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>396.45</c:v>
+                  <c:v>392.36059424950503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>401.04</c:v>
+                  <c:v>400.02982783886102</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>406.22</c:v>
+                  <c:v>401.84765370614701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>410.41</c:v>
+                  <c:v>410.56195335654598</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>414.7</c:v>
+                  <c:v>414.50498610746598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>421.94</c:v>
+                  <c:v>417.21037042383398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>427.08</c:v>
+                  <c:v>422.89969153785398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>432.66</c:v>
+                  <c:v>431.48529177639898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>440.16</c:v>
+                  <c:v>438.89380614958702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>445.5</c:v>
+                  <c:v>447.08172837003502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>450.63</c:v>
+                  <c:v>451.29466812232999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>455.39</c:v>
+                  <c:v>453.19040593135003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>460.43</c:v>
+                  <c:v>459.45386183645201</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>464.15</c:v>
+                  <c:v>462.10353442377499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>463.89</c:v>
+                  <c:v>462.20674263909802</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>460.71</c:v>
+                  <c:v>454.16041454386499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>455</c:v>
+                  <c:v>444.88583524999598</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>449.52</c:v>
+                  <c:v>439.14548732148398</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>445.16</c:v>
+                  <c:v>437.14293283101398</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>438.82</c:v>
+                  <c:v>434.47857283076701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>434.05</c:v>
+                  <c:v>426.46318079777302</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>429.11</c:v>
+                  <c:v>423.75082590620201</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>422.61</c:v>
+                  <c:v>418.32800498642303</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>415.18</c:v>
+                  <c:v>417.26117610514802</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>410.83</c:v>
+                  <c:v>404.77521980516201</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>405.37</c:v>
+                  <c:v>404.27216280318999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400.25</c:v>
+                  <c:v>401.30975092829601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>392.07</c:v>
+                  <c:v>387.864967927414</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>386.45</c:v>
+                  <c:v>384.92816742577497</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>380.58</c:v>
+                  <c:v>375.244257930895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>374.8</c:v>
+                  <c:v>366.07883744056198</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>369.46</c:v>
+                  <c:v>362.69258030607301</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>363.66</c:v>
+                  <c:v>359.90156218073997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>359.25</c:v>
+                  <c:v>355.336566511716</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>354.26</c:v>
+                  <c:v>354.16740089947001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>347.72</c:v>
+                  <c:v>347.50824916585998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>342.76</c:v>
+                  <c:v>343.475598478189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29652,16 +29486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>610</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>623</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30010,8 +29844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EA8C1-D769-F24C-9B93-6825BDFB1308}">
   <dimension ref="A2:Z638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="J599" sqref="J599"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="L380" sqref="L380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32154,7 +31988,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" ref="A94:A125" si="2">(B94/$B$111)*$P$71</f>
+        <f t="shared" ref="A94:A111" si="2">(B94/$B$111)*$P$71</f>
         <v>226.58856</v>
       </c>
       <c r="B94">
@@ -39576,7 +39410,7 @@
         <v>1</v>
       </c>
       <c r="G367">
-        <v>337.96</v>
+        <v>340.37715081282499</v>
       </c>
       <c r="J367">
         <v>0.27739999999999998</v>
@@ -39603,7 +39437,7 @@
         <v>1</v>
       </c>
       <c r="G368">
-        <v>335.17</v>
+        <v>334.46276006808</v>
       </c>
       <c r="J368">
         <v>0.28149999999999997</v>
@@ -39630,7 +39464,7 @@
         <v>1</v>
       </c>
       <c r="G369">
-        <v>333.76</v>
+        <v>330.272003419089</v>
       </c>
       <c r="L369" t="s">
         <v>29</v>
@@ -39660,7 +39494,7 @@
         <v>1</v>
       </c>
       <c r="G370">
-        <v>336.45</v>
+        <v>338.483249272818</v>
       </c>
       <c r="J370">
         <f>(J367+J368)/2</f>
@@ -39699,7 +39533,7 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <v>342.39</v>
+        <v>342.359167249645</v>
       </c>
       <c r="J371">
         <f>J370/0.0000000001</f>
@@ -39736,7 +39570,7 @@
         <v>1</v>
       </c>
       <c r="G372">
-        <v>347.72</v>
+        <v>347.26893146331503</v>
       </c>
       <c r="X372" t="s">
         <v>5</v>
@@ -39766,7 +39600,7 @@
         <v>1</v>
       </c>
       <c r="G373">
-        <v>354.33</v>
+        <v>356.34805567444403</v>
       </c>
       <c r="X373" t="s">
         <v>6</v>
@@ -39796,7 +39630,7 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>361.34</v>
+        <v>362.40381205450302</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.2">
@@ -39820,7 +39654,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>365.84</v>
+        <v>365.39833209223201</v>
       </c>
       <c r="K375" t="s">
         <v>7</v>
@@ -39889,7 +39723,7 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>372.43</v>
+        <v>375.08511509015102</v>
       </c>
       <c r="K376">
         <v>1000000</v>
@@ -39948,7 +39782,7 @@
         <v>1</v>
       </c>
       <c r="G377">
-        <v>378.44</v>
+        <v>377.78505737634799</v>
       </c>
       <c r="K377">
         <v>2000000</v>
@@ -40022,7 +39856,7 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>382.05</v>
+        <v>377.602095593385</v>
       </c>
       <c r="Y378" s="1"/>
     </row>
@@ -40047,7 +39881,7 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>388.23</v>
+        <v>382.18184789804297</v>
       </c>
       <c r="Y379" s="1"/>
     </row>
@@ -40072,7 +39906,7 @@
         <v>1</v>
       </c>
       <c r="G380">
-        <v>396.45</v>
+        <v>392.36059424950503</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.2">
@@ -40096,7 +39930,7 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <v>401.04</v>
+        <v>400.02982783886102</v>
       </c>
       <c r="X381" t="s">
         <v>22</v>
@@ -40127,7 +39961,7 @@
         <v>1</v>
       </c>
       <c r="G382">
-        <v>406.22</v>
+        <v>401.84765370614701</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.2">
@@ -40151,7 +39985,7 @@
         <v>1</v>
       </c>
       <c r="G383">
-        <v>410.41</v>
+        <v>410.56195335654598</v>
       </c>
       <c r="X383" t="s">
         <v>23</v>
@@ -40178,7 +40012,7 @@
         <v>1</v>
       </c>
       <c r="G384">
-        <v>414.7</v>
+        <v>414.50498610746598</v>
       </c>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.2">
@@ -40202,7 +40036,7 @@
         <v>1</v>
       </c>
       <c r="G385">
-        <v>421.94</v>
+        <v>417.21037042383398</v>
       </c>
       <c r="X385" t="s">
         <v>24</v>
@@ -40236,7 +40070,7 @@
         <v>1</v>
       </c>
       <c r="G386">
-        <v>427.08</v>
+        <v>422.89969153785398</v>
       </c>
       <c r="Y386">
         <f>Y385*M370</f>
@@ -40264,7 +40098,7 @@
         <v>1</v>
       </c>
       <c r="G387">
-        <v>432.66</v>
+        <v>431.48529177639898</v>
       </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.2">
@@ -40288,7 +40122,7 @@
         <v>1</v>
       </c>
       <c r="G388">
-        <v>440.16</v>
+        <v>438.89380614958702</v>
       </c>
       <c r="K388" t="s">
         <v>45</v>
@@ -40330,7 +40164,7 @@
         <v>1</v>
       </c>
       <c r="G389">
-        <v>445.5</v>
+        <v>447.08172837003502</v>
       </c>
       <c r="L389">
         <v>1267000</v>
@@ -40383,7 +40217,7 @@
         <v>1</v>
       </c>
       <c r="G390">
-        <v>450.63</v>
+        <v>451.29466812232999</v>
       </c>
       <c r="L390">
         <v>1450000</v>
@@ -40451,7 +40285,7 @@
         <v>1</v>
       </c>
       <c r="G391">
-        <v>455.39</v>
+        <v>453.19040593135003</v>
       </c>
       <c r="L391">
         <v>1611000</v>
@@ -40519,7 +40353,7 @@
         <v>1</v>
       </c>
       <c r="G392">
-        <v>460.43</v>
+        <v>459.45386183645201</v>
       </c>
       <c r="L392">
         <v>1730000</v>
@@ -40587,7 +40421,7 @@
         <v>1</v>
       </c>
       <c r="G393">
-        <v>464.15</v>
+        <v>462.10353442377499</v>
       </c>
       <c r="L393">
         <v>1883000</v>
@@ -40655,7 +40489,7 @@
         <v>1</v>
       </c>
       <c r="G394">
-        <v>463.89</v>
+        <v>462.20674263909802</v>
       </c>
       <c r="L394">
         <v>2000000</v>
@@ -40723,7 +40557,7 @@
         <v>1</v>
       </c>
       <c r="G395">
-        <v>460.71</v>
+        <v>454.16041454386499</v>
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.2">
@@ -40747,7 +40581,7 @@
         <v>1</v>
       </c>
       <c r="G396">
-        <v>455</v>
+        <v>444.88583524999598</v>
       </c>
       <c r="X396" t="s">
         <v>22</v>
@@ -40778,7 +40612,7 @@
         <v>1</v>
       </c>
       <c r="G397">
-        <v>449.52</v>
+        <v>439.14548732148398</v>
       </c>
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.2">
@@ -40802,7 +40636,7 @@
         <v>1</v>
       </c>
       <c r="G398">
-        <v>445.16</v>
+        <v>437.14293283101398</v>
       </c>
       <c r="X398" t="s">
         <v>23</v>
@@ -40829,7 +40663,7 @@
         <v>1</v>
       </c>
       <c r="G399">
-        <v>438.82</v>
+        <v>434.47857283076701</v>
       </c>
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.2">
@@ -40853,7 +40687,7 @@
         <v>1</v>
       </c>
       <c r="G400">
-        <v>434.05</v>
+        <v>426.46318079777302</v>
       </c>
       <c r="X400" t="s">
         <v>24</v>
@@ -40887,7 +40721,7 @@
         <v>1</v>
       </c>
       <c r="G401">
-        <v>429.11</v>
+        <v>423.75082590620201</v>
       </c>
       <c r="Y401">
         <f>Y400*M370</f>
@@ -40915,7 +40749,7 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <v>422.61</v>
+        <v>418.32800498642303</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.2">
@@ -40939,7 +40773,7 @@
         <v>1</v>
       </c>
       <c r="G403">
-        <v>415.18</v>
+        <v>417.26117610514802</v>
       </c>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.2">
@@ -40963,7 +40797,7 @@
         <v>1</v>
       </c>
       <c r="G404">
-        <v>410.83</v>
+        <v>404.77521980516201</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.2">
@@ -40987,7 +40821,7 @@
         <v>1</v>
       </c>
       <c r="G405">
-        <v>405.37</v>
+        <v>404.27216280318999</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.2">
@@ -41011,7 +40845,7 @@
         <v>1</v>
       </c>
       <c r="G406">
-        <v>400.25</v>
+        <v>401.30975092829601</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.2">
@@ -41035,7 +40869,7 @@
         <v>1</v>
       </c>
       <c r="G407">
-        <v>392.07</v>
+        <v>387.864967927414</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.2">
@@ -41059,7 +40893,7 @@
         <v>1</v>
       </c>
       <c r="G408">
-        <v>386.45</v>
+        <v>384.92816742577497</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.2">
@@ -41083,7 +40917,7 @@
         <v>1</v>
       </c>
       <c r="G409">
-        <v>380.58</v>
+        <v>375.244257930895</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.2">
@@ -41107,7 +40941,7 @@
         <v>1</v>
       </c>
       <c r="G410">
-        <v>374.8</v>
+        <v>366.07883744056198</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.2">
@@ -41131,7 +40965,7 @@
         <v>1</v>
       </c>
       <c r="G411">
-        <v>369.46</v>
+        <v>362.69258030607301</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.2">
@@ -41155,7 +40989,7 @@
         <v>1</v>
       </c>
       <c r="G412">
-        <v>363.66</v>
+        <v>359.90156218073997</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.2">
@@ -41179,7 +41013,7 @@
         <v>1</v>
       </c>
       <c r="G413">
-        <v>359.25</v>
+        <v>355.336566511716</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.2">
@@ -41203,7 +41037,7 @@
         <v>1</v>
       </c>
       <c r="G414">
-        <v>354.26</v>
+        <v>354.16740089947001</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.2">
@@ -41227,7 +41061,7 @@
         <v>1</v>
       </c>
       <c r="G415">
-        <v>347.72</v>
+        <v>347.50824916585998</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.2">
@@ -41251,7 +41085,7 @@
         <v>1</v>
       </c>
       <c r="G416">
-        <v>342.76</v>
+        <v>343.475598478189</v>
       </c>
     </row>
     <row r="418" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -46349,6 +46183,9 @@
       <c r="F588" t="s">
         <v>33</v>
       </c>
+      <c r="J588">
+        <v>0.47249999999999998</v>
+      </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A589">
@@ -46373,6 +46210,9 @@
       <c r="G589">
         <v>329.25658905411098</v>
       </c>
+      <c r="J589">
+        <v>0.2797</v>
+      </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A590">
@@ -46429,18 +46269,18 @@
       </c>
       <c r="J591">
         <f>(J588+J589)/2</f>
-        <v>0</v>
+        <v>0.37609999999999999</v>
       </c>
       <c r="K591" t="s">
         <v>2</v>
       </c>
-      <c r="L591" t="e">
+      <c r="L591">
         <f>STDEV(J588:J589)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M591" t="e">
+        <v>0.13633018741276648</v>
+      </c>
+      <c r="M591">
         <f>L591/J591</f>
-        <v>#DIV/0!</v>
+        <v>0.36248388038491486</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.2">
@@ -46468,7 +46308,7 @@
       </c>
       <c r="J592">
         <f>J591/0.0000000001</f>
-        <v>0</v>
+        <v>3761000000</v>
       </c>
       <c r="K592" t="s">
         <v>3</v>
@@ -47113,8 +46953,8 @@
         <v>22</v>
       </c>
       <c r="Y604" s="1">
-        <f>AVERAGE(Y598:Y601)</f>
-        <v>4990723881.3535967</v>
+        <f>AVERAGE(Y598:Y602)</f>
+        <v>4835541718.3059397</v>
       </c>
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.2">
@@ -47170,9 +47010,9 @@
       <c r="X606" t="s">
         <v>24</v>
       </c>
-      <c r="Y606" s="2" t="e">
+      <c r="Y606" s="1">
         <f>Y604/J592</f>
-        <v>#DIV/0!</v>
+        <v>1.2857063861488804</v>
       </c>
       <c r="Z606" t="s">
         <v>25</v>
@@ -47201,9 +47041,9 @@
       <c r="G607">
         <v>365.838848294321</v>
       </c>
-      <c r="Y607" t="e">
+      <c r="Y607" s="1">
         <f>Y606*M591</f>
-        <v>#DIV/0!</v>
+        <v>0.46604783988691195</v>
       </c>
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.2">
